--- a/contact_book_1/Contacts.xlsx
+++ b/contact_book_1/Contacts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1234567898</t>
+          <t>0777000111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brian@example.com</t>
+          <t>brian@email.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0747222999</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
         </is>
       </c>
     </row>
